--- a/documentation-generator/vocab_csv/gdpr.xlsx
+++ b/documentation-generator/vocab_csv/gdpr.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="496">
   <si>
     <t>Term</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Art.6(1-a) consent</t>
   </si>
   <si>
-    <t>consent of the data subject</t>
+    <t>Legal basis based on data subject's given consent to the processing of his or her personal data for one or more specific purposes</t>
   </si>
   <si>
     <t>dpv:ExpressedConsent</t>
@@ -86,202 +86,280 @@
     <t>(GDPR Art.6-1a,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_a/oj)</t>
   </si>
   <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>A6-1-a-non-explicit-consent</t>
+  </si>
+  <si>
+    <t>Art.6(1-a) regular consent</t>
+  </si>
+  <si>
+    <t>Legal basis based on data subject's given non-explicit express consent to the processing of his or her personal data for one or more specific purposes</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1a,dpv:ExpressedConsent</t>
+  </si>
+  <si>
+    <t>Definition of consent: A data subject's unambigious/clear affirmative action that signifies an agreement to process their personal data (Rigo Wenning) . What is referred to as 'non-explicit consent' here is also termed as 'regular' consent in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)". This is the legal basis that requires consent but not at the level of being 'explicit'.</t>
+  </si>
+  <si>
+    <t>Eva Schlehahn, Bud Bruegger, Harshvardhan J. Pandit, Rigo Wenning</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2022/06/22-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>A6-1-a-explicit-consent</t>
+  </si>
+  <si>
+    <t>Art 6(1-a) explicit consent</t>
+  </si>
+  <si>
+    <t>Legal basis based on data subject's given explicit consent to the processing of his or her personal data for one or more specific purposes</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1a,dpv:ExplicitlyExpressedConsent</t>
+  </si>
+  <si>
+    <t>Valid consent in this case would have requirements for being 'explicit' in addition to requirements defined by A4-11. This is also mentioned in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)"</t>
+  </si>
+  <si>
+    <t>A6-1-b</t>
+  </si>
+  <si>
+    <t>Art 6(1-b) contract</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a contract to which the data subject is party or in order to take steps at the request of the data subject prior to entering into a contract</t>
+  </si>
+  <si>
+    <t>dpv:Contract</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1b,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>Eva Schlehahn, Bud Bruegger, Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2019/04/05-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>A6-1-b-enter-into-contract</t>
+  </si>
+  <si>
+    <t>Art 6(1-b) enter into contract</t>
+  </si>
+  <si>
+    <t>Legal basis based on taking steps at the request of the data subject prior to entering into a contract</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-b,dpv:EnterIntoContract</t>
+  </si>
+  <si>
+    <t>Georg P Krog</t>
+  </si>
+  <si>
+    <t>A6-1-b-contract-performance</t>
+  </si>
+  <si>
+    <t>Art 6(1-b) contract performance</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a contract to which the data subject is party</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-b,dpv:ContractPerformance</t>
+  </si>
+  <si>
+    <t>A6-1-c</t>
+  </si>
+  <si>
+    <t>Art 6(1-c) legal obligation</t>
+  </si>
+  <si>
+    <t>Legal basis based on compliance with a legal obligation to which the controller is subject</t>
+  </si>
+  <si>
+    <t>dpv:LegalObligation</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1c,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_c/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-d</t>
+  </si>
+  <si>
+    <t>Art 6(1-d) protect vital interests</t>
+  </si>
+  <si>
+    <t>Legal basis based on protecting the vital interests of the data subject or of another natural person</t>
+  </si>
+  <si>
+    <t>dpv:VitalInterest</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1d,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_d/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-d-data-subject</t>
+  </si>
+  <si>
+    <t>Art 6(1-d) protect vital interests of data subject</t>
+  </si>
+  <si>
+    <t>Legal basis based on protecting the vital interests of the data subject</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-d,dpv:VitalInterestOfDataSubject</t>
+  </si>
+  <si>
+    <t>A6-1-d-natual-person</t>
+  </si>
+  <si>
+    <t>Art 6(1-d) protect vital interests of natural person</t>
+  </si>
+  <si>
+    <t>Legal basis based on protecting the vital interests of another natural person that is not the data subject</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-d,dpv:VitalInterestOfNaturalPerson</t>
+  </si>
+  <si>
+    <t>A6-1-e</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) public interest or official authority</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a task carried out in the public interest or in the exercise of official authority vested in the controller</t>
+  </si>
+  <si>
+    <t>dpv:PublicInterest,dpv:OfficialAuthorityOfController</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1e,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_e/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-e-public-interest</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) public interest</t>
+  </si>
+  <si>
+    <t>Legal basis based on performance of a task carried out in the public interest</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-e,dpv:PublicInterest</t>
+  </si>
+  <si>
+    <t>A6-1-e-official-authority</t>
+  </si>
+  <si>
+    <t>Art 6(1-e) official authority</t>
+  </si>
+  <si>
+    <t>Legal basis based on the exercise of official authority vested in the controller</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-e,dpv:OfficialAuthorityOfController</t>
+  </si>
+  <si>
+    <t>A6-1-f</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller or by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>dpv:LegitimateInterest</t>
+  </si>
+  <si>
+    <t>(GDPR Art.6-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_f/oj)</t>
+  </si>
+  <si>
+    <t>A6-1-f-controller</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest of controller</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by the controller, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-f,dpv:LegitimateInterestOfController</t>
+  </si>
+  <si>
+    <t>A6-1-f-third-party</t>
+  </si>
+  <si>
+    <t>Art 6(1-f) legitimate interest of third party</t>
+  </si>
+  <si>
+    <t>Legal basis based on the purposes of the legitimate interests pursued by a third party, except where such interests are overridden by the interests or fundamental rights and freedoms of the data subject which require protection of personal data, in particular where the data subject is a child</t>
+  </si>
+  <si>
+    <t>dpv-gdpr:A6-1-f,dpv:LegitimateInterestOfThirdParty</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>(TBD: pending clarity)</t>
+  </si>
+  <si>
+    <t>proposed</t>
+  </si>
+  <si>
+    <t>A9-2-a</t>
+  </si>
+  <si>
+    <t>Art 9(2-a) explicit consent</t>
+  </si>
+  <si>
+    <t>explicit consent with special categories of data</t>
+  </si>
+  <si>
+    <t>dpv:ExplicitlyExpressedConsent</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_a/oj)</t>
+  </si>
+  <si>
     <t>accepted</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit</t>
-  </si>
-  <si>
-    <t>A6-1-a-non-explicit-consent</t>
-  </si>
-  <si>
-    <t>Art.6(1-a) regular consent</t>
-  </si>
-  <si>
-    <t>consent (non-explicit or regular) of the data subject</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1a,dpv:ExpressedConsent</t>
-  </si>
-  <si>
-    <t>Definition of consent: A data subject's unambigious/clear affirmative action that signifies an agreement to process their personal data (Rigo Wenning) . What is referred to as 'non-explicit consent' here is also termed as 'regular' consent in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)". This is the legal basis that requires consent but not at the level of being 'explicit'.</t>
-  </si>
-  <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>Eva Schlehahn, Bud Bruegger, Harshvardhan J. Pandit, Rigo Wenning</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2022/06/22-dpvcg-minutes.html</t>
-  </si>
-  <si>
-    <t>A6-1-a-explicit-consent</t>
-  </si>
-  <si>
-    <t>Art 6(1-a) explicit consent</t>
-  </si>
-  <si>
-    <t>consent (explicit) of the data subject</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1a,dpv:ExplicitlyExpressedConsent</t>
-  </si>
-  <si>
-    <t>Valid consent in this case would have requirements for being 'explicit' in addition to requirements defined by A4-11. This is also mentioned in the Article 29 Working Party document "Guidelines on Consent under Regulation 2016/679 (wp259rev.01)"</t>
-  </si>
-  <si>
-    <t>A6-1-b</t>
-  </si>
-  <si>
-    <t>Art 6(1-b) contract</t>
-  </si>
-  <si>
-    <t>performance of a contract</t>
-  </si>
-  <si>
-    <t>dpv:Contract</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1b,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_b/oj)</t>
-  </si>
-  <si>
     <t>Eva Schlehahn, Bud Bruegger</t>
   </si>
   <si>
-    <t>https://www.w3.org/2019/04/05-dpvcg-minutes.html</t>
-  </si>
-  <si>
-    <t>A6-1-c</t>
-  </si>
-  <si>
-    <t>Art 6(1-c) legal obligation</t>
-  </si>
-  <si>
-    <t>compliance with a legal obligation</t>
-  </si>
-  <si>
-    <t>dpv:LegalObligation</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1c,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_c/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-d</t>
-  </si>
-  <si>
-    <t>Art 6(1-d) protect vital interests</t>
+    <t>A9-2-b</t>
+  </si>
+  <si>
+    <t>Art 9(2-b) employment, social security, social protection law</t>
+  </si>
+  <si>
+    <t>employment and social security and social protection law</t>
+  </si>
+  <si>
+    <t>dpv:LegalBasis</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_b/oj)</t>
+  </si>
+  <si>
+    <t>A9-2-c</t>
+  </si>
+  <si>
+    <t>Art 9(2-c) protect vital interest</t>
   </si>
   <si>
     <t>protection of the vital interests</t>
-  </si>
-  <si>
-    <t>dpv:VitalInterest</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1d,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_d/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-e</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) public interest or official authority</t>
-  </si>
-  <si>
-    <t>public interest or official authority</t>
-  </si>
-  <si>
-    <t>dpv:PublicInterest,dpv:OfficialAuthorityOfController</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1e,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_e/oj)</t>
-  </si>
-  <si>
-    <t>A6-1-e-public-interest</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) public interest</t>
-  </si>
-  <si>
-    <t>public interest</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-e,dpv:PublicInterest</t>
-  </si>
-  <si>
-    <t>A6-1-e-official-authority</t>
-  </si>
-  <si>
-    <t>Art 6(1-e) official authority</t>
-  </si>
-  <si>
-    <t>official authority</t>
-  </si>
-  <si>
-    <t>dpv-gdpr:A6-1-e,dpv:OfficialAuthorityOfController</t>
-  </si>
-  <si>
-    <t>A6-1-f</t>
-  </si>
-  <si>
-    <t>Art 6(1-f) legitimate interest</t>
-  </si>
-  <si>
-    <t>legitimate interests</t>
-  </si>
-  <si>
-    <t>dpv:LegitimateInterest</t>
-  </si>
-  <si>
-    <t>(GDPR Art.6-1f,https://eur-lex.europa.eu/eli/reg/2016/679/art_6/par_1/pnt_f/oj)</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>(TBD: pending clarity)</t>
-  </si>
-  <si>
-    <t>proposed</t>
-  </si>
-  <si>
-    <t>Georg P Krog</t>
-  </si>
-  <si>
-    <t>A9-2-a</t>
-  </si>
-  <si>
-    <t>Art 9(2-a) explicit consent</t>
-  </si>
-  <si>
-    <t>explicit consent with special categories of data</t>
-  </si>
-  <si>
-    <t>dpv:ExplicitlyExpressedConsent</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2a,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_a/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-b</t>
-  </si>
-  <si>
-    <t>Art 9(2-b) employment, social security, social protection law</t>
-  </si>
-  <si>
-    <t>employment and social security and social protection law</t>
-  </si>
-  <si>
-    <t>dpv:LegalBasis</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-2b,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_b/oj)</t>
-  </si>
-  <si>
-    <t>A9-2-c</t>
-  </si>
-  <si>
-    <t>Art 9(2-c) protect vital interest</t>
   </si>
   <si>
     <t>(GDPR Art.9-2c,https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_2/pnt_c/oj)</t>
@@ -2281,7 +2359,9 @@
       <c r="K2" s="13">
         <v>44811.0</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="13">
+        <v>44889.0</v>
+      </c>
       <c r="M2" s="10" t="s">
         <v>22</v>
       </c>
@@ -2289,19 +2369,6 @@
         <v>23</v>
       </c>
       <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -2332,30 +2399,30 @@
         <v>43565.0</v>
       </c>
       <c r="L3" s="13">
-        <v>44811.0</v>
+        <v>44889.0</v>
       </c>
       <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -2364,7 +2431,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>21</v>
@@ -2373,30 +2440,30 @@
         <v>44734.0</v>
       </c>
       <c r="L4" s="13">
-        <v>44811.0</v>
+        <v>44889.0</v>
       </c>
       <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -2406,49 +2473,36 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" s="13">
         <v>43560.0</v>
       </c>
       <c r="L5" s="13">
-        <v>44447.0</v>
+        <v>44889.0</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="14" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -2457,50 +2511,37 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="12" t="s">
-        <v>48</v>
+      <c r="J6" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="K6" s="13">
-        <v>43560.0</v>
+        <v>44889.0</v>
       </c>
       <c r="L6" s="13">
-        <v>44447.0</v>
+        <v>44889.0</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -2510,49 +2551,36 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K7" s="13">
-        <v>43560.0</v>
+        <v>44889.0</v>
       </c>
       <c r="L7" s="13">
-        <v>44447.0</v>
+        <v>44889.0</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="D8" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -2561,50 +2589,37 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="10" t="s">
-        <v>58</v>
+      <c r="J8" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="K8" s="13">
         <v>43560.0</v>
       </c>
       <c r="L8" s="13">
-        <v>44447.0</v>
+        <v>44889.0</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="D9" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -2614,47 +2629,36 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K9" s="13">
-        <v>44797.0</v>
-      </c>
-      <c r="L9" s="13"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>44889.0</v>
+      </c>
       <c r="M9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -2664,47 +2668,36 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K10" s="13">
-        <v>44797.0</v>
-      </c>
-      <c r="L10" s="13"/>
+        <v>44889.0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>44889.0</v>
+      </c>
       <c r="M10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>19</v>
@@ -2714,89 +2707,310 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K11" s="13">
-        <v>43560.0</v>
+        <v>44889.0</v>
       </c>
       <c r="L11" s="13">
-        <v>44447.0</v>
+        <v>44889.0</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="J12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="13">
+        <v>43560.0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>44889.0</v>
+      </c>
       <c r="M12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
+      <c r="K13" s="13">
+        <v>44797.0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>44889.0</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="13">
+        <v>44797.0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>44889.0</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="13">
+        <v>43560.0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>44889.0</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="13">
+        <v>44889.0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>44889.0</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="13">
+        <v>44889.0</v>
+      </c>
+      <c r="L17" s="13">
+        <v>44889.0</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB11 A16:AB16">
+  <conditionalFormatting sqref="A2:AB17 A22:AB22">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB101">
+  <conditionalFormatting sqref="A2:AB107">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O11 A16:O16">
+  <conditionalFormatting sqref="A2:O17 A22:O22">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
@@ -2811,8 +3025,14 @@
     <hyperlink r:id="rId7" ref="O9"/>
     <hyperlink r:id="rId8" ref="O10"/>
     <hyperlink r:id="rId9" ref="O11"/>
+    <hyperlink r:id="rId10" ref="O12"/>
+    <hyperlink r:id="rId11" ref="O13"/>
+    <hyperlink r:id="rId12" ref="O14"/>
+    <hyperlink r:id="rId13" ref="O15"/>
+    <hyperlink r:id="rId14" ref="O16"/>
+    <hyperlink r:id="rId15" ref="O17"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2881,16 +3101,16 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -2900,7 +3120,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="K2" s="13">
         <v>43560.0</v>
@@ -2909,13 +3129,13 @@
         <v>44447.0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -2933,16 +3153,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -2952,20 +3172,20 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K3" s="13">
         <v>43560.0</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -2983,16 +3203,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -3002,7 +3222,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="K4" s="13">
         <v>43560.0</v>
@@ -3011,13 +3231,13 @@
         <v>44447.0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -3035,16 +3255,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -3054,7 +3274,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="K5" s="13">
         <v>43560.0</v>
@@ -3063,13 +3283,13 @@
         <v>44447.0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -3087,16 +3307,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -3106,20 +3326,20 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="K6" s="13">
         <v>43560.0</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -3137,16 +3357,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -3156,20 +3376,20 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="K7" s="13">
         <v>43560.0</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3187,16 +3407,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -3206,7 +3426,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="10" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="K8" s="13">
         <v>43560.0</v>
@@ -3215,13 +3435,13 @@
         <v>44447.0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -3239,16 +3459,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -3258,20 +3478,20 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="K9" s="13">
         <v>43560.0</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -3289,16 +3509,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -3308,7 +3528,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="K10" s="13">
         <v>43560.0</v>
@@ -3317,13 +3537,13 @@
         <v>44447.0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -3341,16 +3561,16 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>19</v>
@@ -3360,7 +3580,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="19" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="K11" s="21">
         <v>43560.0</v>
@@ -3369,13 +3589,13 @@
         <v>44447.0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N11" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
@@ -3488,16 +3708,16 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -3506,10 +3726,10 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="23" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="K2" s="21">
         <v>44139.0</v>
@@ -3518,13 +3738,13 @@
         <v>44447.0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
@@ -3542,16 +3762,16 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -3560,10 +3780,10 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="23" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="K3" s="21">
         <v>44139.0</v>
@@ -3572,13 +3792,13 @@
         <v>44447.0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -3596,16 +3816,16 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -3614,10 +3834,10 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="23" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="K4" s="21">
         <v>44139.0</v>
@@ -3626,13 +3846,13 @@
         <v>44447.0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -3650,16 +3870,16 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -3668,10 +3888,10 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="23" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="K5" s="21">
         <v>44139.0</v>
@@ -3680,13 +3900,13 @@
         <v>44447.0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -3704,16 +3924,16 @@
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -3722,10 +3942,10 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="23" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="K6" s="21">
         <v>44139.0</v>
@@ -3734,13 +3954,13 @@
         <v>44447.0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -3758,16 +3978,16 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -3776,10 +3996,10 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="23" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="K7" s="21">
         <v>44139.0</v>
@@ -3788,13 +4008,13 @@
         <v>44447.0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -3812,16 +4032,16 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -3830,10 +4050,10 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="23" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="K8" s="21">
         <v>44139.0</v>
@@ -3842,13 +4062,13 @@
         <v>44447.0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
@@ -3866,16 +4086,16 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -3884,10 +4104,10 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="23" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="K9" s="21">
         <v>44139.0</v>
@@ -3896,13 +4116,13 @@
         <v>44447.0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
@@ -3920,16 +4140,16 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -3938,10 +4158,10 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="23" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="K10" s="21">
         <v>44139.0</v>
@@ -3950,13 +4170,13 @@
         <v>44447.0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -3974,16 +4194,16 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>19</v>
@@ -3992,10 +4212,10 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="23" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="K11" s="21">
         <v>44139.0</v>
@@ -4004,13 +4224,13 @@
         <v>44734.0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
@@ -4028,16 +4248,16 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>19</v>
@@ -4046,10 +4266,10 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="23" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="K12" s="21">
         <v>44139.0</v>
@@ -4058,13 +4278,13 @@
         <v>44447.0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
@@ -4082,16 +4302,16 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>19</v>
@@ -4100,10 +4320,10 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="23" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="K13" s="21">
         <v>44139.0</v>
@@ -4112,13 +4332,13 @@
         <v>44447.0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
@@ -4136,16 +4356,16 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>19</v>
@@ -4154,10 +4374,10 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="23" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="K14" s="21">
         <v>44139.0</v>
@@ -4166,13 +4386,13 @@
         <v>44447.0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
@@ -4190,16 +4410,16 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
@@ -4208,10 +4428,10 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K15" s="21">
         <v>44139.0</v>
@@ -4220,13 +4440,13 @@
         <v>44447.0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -4244,16 +4464,16 @@
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -4262,10 +4482,10 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="K16" s="21">
         <v>44139.0</v>
@@ -4274,13 +4494,13 @@
         <v>44447.0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -4298,16 +4518,16 @@
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>19</v>
@@ -4316,10 +4536,10 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="K17" s="21">
         <v>44139.0</v>
@@ -4328,13 +4548,13 @@
         <v>44447.0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -4352,16 +4572,16 @@
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>19</v>
@@ -4370,10 +4590,10 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K18" s="21">
         <v>44139.0</v>
@@ -4382,13 +4602,13 @@
         <v>44447.0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
@@ -4491,16 +4711,16 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>19</v>
@@ -4510,20 +4730,20 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="K2" s="30">
         <v>44139.0</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
@@ -4545,16 +4765,16 @@
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>19</v>
@@ -4564,20 +4784,20 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="29" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K3" s="30">
         <v>44139.0</v>
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
@@ -4599,16 +4819,16 @@
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>19</v>
@@ -4618,20 +4838,20 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="29" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="K4" s="30">
         <v>44139.0</v>
       </c>
       <c r="L4" s="30"/>
       <c r="M4" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -4653,16 +4873,16 @@
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>19</v>
@@ -4672,20 +4892,20 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="29" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="K5" s="30">
         <v>44139.0</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
@@ -4707,16 +4927,16 @@
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>19</v>
@@ -4726,20 +4946,20 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="29" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="K6" s="30">
         <v>44139.0</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
@@ -4761,16 +4981,16 @@
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>19</v>
@@ -4780,20 +5000,20 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="29" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K7" s="30">
         <v>44139.0</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
@@ -4815,16 +5035,16 @@
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>19</v>
@@ -4834,20 +5054,20 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="29" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="K8" s="30">
         <v>44139.0</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
@@ -4869,16 +5089,16 @@
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>19</v>
@@ -4888,20 +5108,20 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="29" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="K9" s="30">
         <v>44139.0</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
@@ -4923,16 +5143,16 @@
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>19</v>
@@ -4942,20 +5162,20 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="29" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K10" s="30">
         <v>44139.0</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -4977,16 +5197,16 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>19</v>
@@ -4996,20 +5216,20 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="29" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K11" s="30">
         <v>44139.0</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
@@ -5031,16 +5251,16 @@
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>19</v>
@@ -5050,20 +5270,20 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="29" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K12" s="30">
         <v>44139.0</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
@@ -5085,16 +5305,16 @@
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>19</v>
@@ -5104,20 +5324,20 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="29" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K13" s="30">
         <v>44139.0</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
@@ -5147,22 +5367,22 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="C15" s="32"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -5177,10 +5397,10 @@
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -5203,16 +5423,16 @@
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>19</v>
@@ -5227,10 +5447,10 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -5253,16 +5473,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>19</v>
@@ -5277,10 +5497,10 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -5303,61 +5523,61 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="10" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K19" s="36">
         <v>44874.0</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="10" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="K20" s="36">
         <v>44874.0</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="10" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="K21" s="36">
         <v>44874.0</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>19</v>
@@ -5372,10 +5592,10 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -5398,13 +5618,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -5418,10 +5638,10 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -5444,44 +5664,44 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="10" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="K24" s="36">
         <v>44874.0</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="10" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="10" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="10" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28">
@@ -8499,16 +8719,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -8518,20 +8738,20 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="38" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="K2" s="13">
         <v>44461.0</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -8549,16 +8769,16 @@
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -8568,20 +8788,20 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="39" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="K3" s="13">
         <v>44461.0</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -8599,16 +8819,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -8618,20 +8838,20 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="38" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="K4" s="13">
         <v>44461.0</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -8649,16 +8869,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>19</v>
@@ -8668,20 +8888,20 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="38" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="K5" s="13">
         <v>44461.0</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -8699,16 +8919,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -8718,20 +8938,20 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="38" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="K6" s="13">
         <v>44461.0</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -8749,16 +8969,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
@@ -8768,20 +8988,20 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="24" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="K7" s="13">
         <v>44461.0</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -8799,16 +9019,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
@@ -8818,20 +9038,20 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="24" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="K8" s="13">
         <v>44461.0</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -8849,16 +9069,16 @@
     </row>
     <row r="9">
       <c r="A9" s="40" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
@@ -8868,20 +9088,20 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="41" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="K9" s="13">
         <v>44461.0</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -8899,16 +9119,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -8918,20 +9138,20 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="38" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="K10" s="13">
         <v>44461.0</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -9052,16 +9272,16 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>19</v>
@@ -9076,13 +9296,13 @@
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -9100,16 +9320,16 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -9124,13 +9344,13 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -9148,16 +9368,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -9172,13 +9392,13 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -9208,16 +9428,16 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>19</v>
@@ -9232,13 +9452,13 @@
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -9256,19 +9476,19 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -9280,13 +9500,13 @@
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -9304,19 +9524,19 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -9328,13 +9548,13 @@
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -9364,16 +9584,16 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>19</v>
@@ -9388,13 +9608,13 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -9412,19 +9632,19 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -9436,13 +9656,13 @@
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -9460,19 +9680,19 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -9484,13 +9704,13 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -9508,19 +9728,19 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -9532,13 +9752,13 @@
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -9567,16 +9787,16 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>19</v>
@@ -9591,13 +9811,13 @@
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -9615,19 +9835,19 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -9639,13 +9859,13 @@
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -9663,19 +9883,19 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>359</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -9687,13 +9907,13 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -9711,19 +9931,19 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -9735,7 +9955,7 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="10" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>23</v>
@@ -9757,19 +9977,19 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -9781,13 +10001,13 @@
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -9815,16 +10035,16 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>19</v>
@@ -9839,10 +10059,10 @@
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -9861,19 +10081,19 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -9885,10 +10105,10 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -9907,19 +10127,19 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -9931,10 +10151,10 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -9963,16 +10183,16 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>19</v>
@@ -9987,10 +10207,10 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -10009,19 +10229,19 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -10033,10 +10253,10 @@
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -10055,19 +10275,19 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -10079,10 +10299,10 @@
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -10169,13 +10389,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -10207,13 +10427,13 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="45"/>
@@ -10225,7 +10445,7 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -10245,13 +10465,13 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="45"/>
@@ -10263,7 +10483,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -10283,13 +10503,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -10301,7 +10521,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -10321,13 +10541,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -10339,7 +10559,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="42"/>
@@ -10359,13 +10579,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -10377,7 +10597,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -10397,13 +10617,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -10415,7 +10635,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -10435,13 +10655,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -10453,7 +10673,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -10473,13 +10693,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -10491,7 +10711,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -10511,13 +10731,13 @@
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="28"/>
@@ -10529,7 +10749,7 @@
       <c r="K10" s="30"/>
       <c r="L10" s="28"/>
       <c r="M10" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
@@ -10549,13 +10769,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -10567,7 +10787,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="11"/>
       <c r="M11" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="26"/>
@@ -10587,13 +10807,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10605,7 +10825,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -10625,13 +10845,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -10643,7 +10863,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -10663,13 +10883,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10681,7 +10901,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -10701,13 +10921,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -10719,7 +10939,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -10739,13 +10959,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -10757,7 +10977,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -10777,13 +10997,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -10795,7 +11015,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="10" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -13826,7 +14046,7 @@
     </row>
     <row r="2">
       <c r="A2" s="47" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -13860,16 +14080,16 @@
     </row>
     <row r="3">
       <c r="A3" s="51" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="E3" s="54" t="s">
         <v>19</v>
@@ -13884,7 +14104,7 @@
       </c>
       <c r="L3" s="55"/>
       <c r="M3" s="53" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N3" s="58" t="s">
         <v>23</v>
@@ -13908,19 +14128,19 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -13932,7 +14152,7 @@
       </c>
       <c r="L4" s="55"/>
       <c r="M4" s="53" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N4" s="58" t="s">
         <v>23</v>
@@ -13956,19 +14176,19 @@
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
@@ -13980,7 +14200,7 @@
       </c>
       <c r="L5" s="55"/>
       <c r="M5" s="53" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N5" s="58" t="s">
         <v>23</v>
@@ -14004,19 +14224,19 @@
     </row>
     <row r="6">
       <c r="A6" s="53" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
@@ -14028,7 +14248,7 @@
       </c>
       <c r="L6" s="55"/>
       <c r="M6" s="53" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N6" s="58" t="s">
         <v>23</v>
@@ -14057,13 +14277,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -14075,10 +14295,10 @@
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="11"/>
@@ -14099,13 +14319,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -14117,10 +14337,10 @@
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="11"/>
